--- a/tmp_excel_for_teams.xlsx
+++ b/tmp_excel_for_teams.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adgceau-my.sharepoint.com/personal/fsaniter_adgce_com/Documents/Desktop/Temp WIP Files/00_QA/adg-qa-check/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adgceau-my.sharepoint.com/personal/fsaniter_adgce_com/Documents/Desktop/Temp WIP Files/00_QA stuff/adg-qa-check/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="8_{F2393E19-B7B4-48F6-B159-0BA71567A11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CCD3FD5-EFCF-46F0-AFE8-D5F164268035}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="8_{F2393E19-B7B4-48F6-B159-0BA71567A11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16EC9A39-A6E9-498A-9F9C-EF0E3A6B948E}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1050" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{E5CD7770-9DE5-4B32-A778-9FBAAE9FE817}"/>
+    <workbookView xWindow="-28920" yWindow="-1050" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{E5CD7770-9DE5-4B32-A778-9FBAAE9FE817}"/>
   </bookViews>
   <sheets>
     <sheet name="Feb" sheetId="1" r:id="rId1"/>
     <sheet name="Mar" sheetId="2" r:id="rId2"/>
+    <sheet name="Apr" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="45">
   <si>
     <t>Office</t>
   </si>
@@ -135,13 +136,34 @@
   </si>
   <si>
     <t>\\adgce.local\projects\SSC\26000\26924\CVL\RCRD CPY\250321_IFA Stage 1\QA</t>
+  </si>
+  <si>
+    <t>\\adgce.local\projects\SSC\23000\23408\CVL\RCRD CPY\250402_01_Mark Up Comment on Dps for client</t>
+  </si>
+  <si>
+    <t>\\adgce.local\projects\SSC\26000\26924\CVL\RCRD CPY\250409_01_IFA_STG 1 HYD</t>
+  </si>
+  <si>
+    <t>\\adgce.local\projects\SSC\27000\27170\CVL\RCRD CPY\0. STAGE 5A\241025_01_IFT SW</t>
+  </si>
+  <si>
+    <t>\\adgce.local\projects\SSC\26000\26924\CVL\RCRD CPY\DWG</t>
+  </si>
+  <si>
+    <t>\\adgce.local\projects\SSC\26000\26924\CVL\RCRD CPY\250414_01_Info</t>
+  </si>
+  <si>
+    <t>\\adgce.local\projects\SSC\26000\26924\CVL\RCRD CPY\250415_01_Early works</t>
+  </si>
+  <si>
+    <t>\\adgce.local\projects\SSC\26000\26924\CVL\RCRD CPY\CRNT\EARLY WORKS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,8 +320,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -477,6 +504,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB5E6A2"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -641,7 +674,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -650,6 +683,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="42" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -696,7 +733,14 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -736,10 +780,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1062,7 +1102,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1226,7 +1266,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:E54">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>$E2="Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1243,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C004677-C8BB-4ACF-9D63-0A675A9ADAFC}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1443,19 +1483,19 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="A11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J11" t="s">
@@ -1463,19 +1503,19 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="A12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="7" t="s">
         <v>8</v>
       </c>
       <c r="J12" t="s">
@@ -1483,19 +1523,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="A13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="7" t="s">
         <v>8</v>
       </c>
       <c r="J13" t="s">
@@ -1503,75 +1543,70 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="A14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="A15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="A16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="7" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="A8:C10">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$E16="Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:C12">
-    <cfRule type="expression" dxfId="1" priority="5">
-      <formula>$E14="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:E50">
-    <cfRule type="expression" dxfId="0" priority="7">
+  <conditionalFormatting sqref="A2:E10 A17:E50">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>$E2="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E45" xr:uid="{D09B1876-0193-4CFF-AA01-0EAB9514DEFE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E10 E17:E45" xr:uid="{D09B1876-0193-4CFF-AA01-0EAB9514DEFE}">
       <formula1>$J$10:$J$13</formula1>
     </dataValidation>
   </dataValidations>
@@ -1585,12 +1620,329 @@
     <hyperlink ref="C9" r:id="rId7" xr:uid="{0D20B3A3-EC3C-4279-9114-15F420952497}"/>
     <hyperlink ref="C10" r:id="rId8" xr:uid="{10FEF611-E628-41C9-8FB5-D1922A9CDB52}"/>
     <hyperlink ref="C6" r:id="rId9" xr:uid="{8DE38B28-1927-4E91-A4CA-D9105A9F2C92}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{7E6D9D07-99D3-4BEE-AB8F-CF950E665B7E}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{6CF150D3-AC19-4842-82B5-056AB444792B}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{5FFD808E-994F-47E3-8FEF-4D4681025B7A}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{F1FB337D-79A7-4D94-9231-6B62E55C9150}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{4CA02FAC-323E-4887-A3A3-E3A8606541D7}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{FED587EB-7373-4F56-92D7-CDE2D12CADA7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED7B264-29E3-42E5-8442-740368110FAE}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="117.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="4">
+        <v>45754</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="J12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A12:E168">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$E12="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:E11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$E2="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E17:E45 E3:E10" xr:uid="{F79A3543-2234-454C-840A-5C5E8938233E}">
+      <formula1>$J$10:$J$13</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{10A5AC8D-BB82-4A5B-BE49-F8C3CF636957}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{7C75AC39-2777-4852-93BC-A9ED9A2FE7E6}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{8B77649C-D997-44A2-A15B-D4D5B5164361}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{90B91117-3DD3-4DB8-81AC-A01729CE93B0}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{75FDC0B6-27B8-4452-BA6B-444FD10857CD}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{53A225C8-D3A3-4C69-80DC-C6E7F21F44DD}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{CB90BD23-B3DD-48A0-9188-380D74281A40}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{91D417A8-2575-4FD3-B80D-F5685375E77F}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{E7E57933-B6FA-420A-91F0-A02ABEE2BA58}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{B46B8F24-6FE5-4B24-AC27-129C83F3E5B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AC5287E22B06744E877F0C2E29D42317" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dfcb89cc1e4c1402d22d1352d2aefff4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fb6a1deb-8c46-45d0-872d-407e6ca3055e" xmlns:ns3="e6f7d2ac-062e-43e3-ae4a-bb8034fa32e1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="21bb43a489dad14bcd2a5a2ce9758dc5" ns2:_="" ns3:_="">
     <xsd:import namespace="fb6a1deb-8c46-45d0-872d-407e6ca3055e"/>
@@ -1811,22 +2163,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC3BA9FD-2DD6-4C78-8479-47CB93D20F97}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="e6f7d2ac-062e-43e3-ae4a-bb8034fa32e1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="fb6a1deb-8c46-45d0-872d-407e6ca3055e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D77A501A-112E-4BCC-A2AE-D214723D105D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52FDBF4D-4C4C-4D59-8183-06B8C9605705}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1843,29 +2205,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D77A501A-112E-4BCC-A2AE-D214723D105D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC3BA9FD-2DD6-4C78-8479-47CB93D20F97}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="fb6a1deb-8c46-45d0-872d-407e6ca3055e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="e6f7d2ac-062e-43e3-ae4a-bb8034fa32e1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>